--- a/Respaldo/Bitacora de respaldos.xlsx
+++ b/Respaldo/Bitacora de respaldos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\qtp\Respaldo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\Documents\qtp\Respaldo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -148,6 +148,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -156,9 +159,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="B14:G16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,31 +455,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
@@ -528,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>42097</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,11 +545,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <f t="shared" ref="E7" si="0">SUM(E6,7)</f>
         <v>42104</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -563,11 +563,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <f t="shared" ref="E8" si="2">SUM(E7+7)</f>
         <v>42111</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -706,25 +706,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>42174</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <v>42174</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+  <mergeCells count="31">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
@@ -737,6 +738,23 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Respaldo/Bitacora de respaldos.xlsx
+++ b/Respaldo/Bitacora de respaldos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -148,9 +148,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -159,6 +156,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G18" sqref="B1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,31 +455,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
@@ -528,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>42097</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,11 +545,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" ref="E7" si="0">SUM(E6,7)</f>
         <v>42104</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -563,11 +563,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" ref="E8" si="2">SUM(E7+7)</f>
         <v>42111</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -722,8 +722,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>42181</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
+        <v>42547</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B1:G2"/>
@@ -740,21 +773,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Respaldo/Bitacora de respaldos.xlsx
+++ b/Respaldo/Bitacora de respaldos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -130,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -142,11 +142,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,8 +160,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="B1:G18"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,35 +461,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
@@ -492,14 +498,14 @@
       <c r="B4" s="3">
         <v>42083</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8">
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7">
         <v>42083</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,14 +514,14 @@
       <c r="B5" s="3">
         <v>42090</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
         <v>42090</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,14 +530,14 @@
       <c r="B6" s="3">
         <v>42097</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11">
         <v>42097</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,15 +547,15 @@
         <f>SUM(B6,7)</f>
         <v>42104</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10">
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11">
         <f t="shared" ref="E7" si="0">SUM(E6,7)</f>
         <v>42104</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -559,15 +565,15 @@
         <f t="shared" ref="B8:B13" si="1">SUM(B7+7)</f>
         <v>42111</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10">
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
         <f t="shared" ref="E8" si="2">SUM(E7+7)</f>
         <v>42111</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -577,12 +583,12 @@
         <f t="shared" si="1"/>
         <v>42118</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
@@ -592,14 +598,14 @@
         <f t="shared" si="1"/>
         <v>42125</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8">
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
         <v>42124</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="6" t="s">
         <v>5</v>
       </c>
@@ -609,14 +615,14 @@
         <f t="shared" si="1"/>
         <v>42132</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
         <v>42132</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="6" t="s">
         <v>5</v>
       </c>
@@ -626,14 +632,14 @@
         <f t="shared" si="1"/>
         <v>42139</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8">
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7">
         <v>42139</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="6" t="s">
         <v>5</v>
       </c>
@@ -643,14 +649,14 @@
         <f t="shared" si="1"/>
         <v>42146</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
         <v>42146</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
@@ -660,14 +666,14 @@
         <f>SUM(B13+7)</f>
         <v>42153</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7">
         <v>42153</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="6" t="s">
         <v>5</v>
       </c>
@@ -677,14 +683,14 @@
         <f>SUM(B14+7)</f>
         <v>42160</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7">
         <v>42160</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="6" t="s">
         <v>5</v>
       </c>
@@ -694,14 +700,12 @@
         <f>SUM(B15+7)</f>
         <v>42167</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
-        <v>42167</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="6" t="s">
         <v>7</v>
       </c>
@@ -710,14 +714,14 @@
       <c r="B17" s="3">
         <v>42174</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7">
         <v>42174</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="6" t="s">
         <v>5</v>
       </c>
@@ -726,39 +730,38 @@
       <c r="B18" s="3">
         <v>42181</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
-        <v>42547</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7">
+        <v>42181</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>42188</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="11">
+        <v>42188</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
+  <mergeCells count="35">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
@@ -773,6 +776,25 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Respaldo/Bitacora de respaldos.xlsx
+++ b/Respaldo/Bitacora de respaldos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -142,6 +142,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,21 +165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,35 +461,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
@@ -498,14 +498,14 @@
       <c r="B4" s="3">
         <v>42083</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7">
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12">
         <v>42083</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
@@ -514,14 +514,14 @@
       <c r="B5" s="3">
         <v>42090</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7">
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12">
         <v>42090</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,14 +530,14 @@
       <c r="B6" s="3">
         <v>42097</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11">
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7">
         <v>42097</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,15 +547,15 @@
         <f>SUM(B6,7)</f>
         <v>42104</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11">
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7">
         <f t="shared" ref="E7" si="0">SUM(E6,7)</f>
         <v>42104</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,15 +565,15 @@
         <f t="shared" ref="B8:B13" si="1">SUM(B7+7)</f>
         <v>42111</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11">
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7">
         <f t="shared" ref="E8" si="2">SUM(E7+7)</f>
         <v>42111</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -583,12 +583,12 @@
         <f t="shared" si="1"/>
         <v>42118</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,14 +598,14 @@
         <f t="shared" si="1"/>
         <v>42125</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7">
+      <c r="C10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12">
         <v>42124</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="6" t="s">
         <v>5</v>
       </c>
@@ -615,14 +615,14 @@
         <f t="shared" si="1"/>
         <v>42132</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7">
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12">
         <v>42132</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="6" t="s">
         <v>5</v>
       </c>
@@ -632,14 +632,14 @@
         <f t="shared" si="1"/>
         <v>42139</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7">
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12">
         <v>42139</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="6" t="s">
         <v>5</v>
       </c>
@@ -649,14 +649,14 @@
         <f t="shared" si="1"/>
         <v>42146</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7">
+      <c r="C13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12">
         <v>42146</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
@@ -666,14 +666,14 @@
         <f>SUM(B13+7)</f>
         <v>42153</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
+      <c r="C14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12">
         <v>42153</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="6" t="s">
         <v>5</v>
       </c>
@@ -683,14 +683,14 @@
         <f>SUM(B14+7)</f>
         <v>42160</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7">
+      <c r="C15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12">
         <v>42160</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="6" t="s">
         <v>5</v>
       </c>
@@ -700,12 +700,12 @@
         <f>SUM(B15+7)</f>
         <v>42167</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="6" t="s">
         <v>7</v>
       </c>
@@ -714,14 +714,14 @@
       <c r="B17" s="3">
         <v>42174</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7">
+      <c r="C17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12">
         <v>42174</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="6" t="s">
         <v>5</v>
       </c>
@@ -730,14 +730,14 @@
       <c r="B18" s="3">
         <v>42181</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7">
+      <c r="C18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12">
         <v>42181</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="6" t="s">
         <v>5</v>
       </c>
@@ -746,20 +746,57 @@
       <c r="B19" s="3">
         <v>42188</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="11">
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7">
         <v>42188</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7">
+        <v>42195</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:G2"/>
@@ -776,25 +813,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Respaldo/Bitacora de respaldos.xlsx
+++ b/Respaldo/Bitacora de respaldos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -142,29 +142,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,35 +461,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
@@ -498,14 +498,14 @@
       <c r="B4" s="3">
         <v>42083</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12">
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11">
         <v>42083</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
@@ -514,14 +514,14 @@
       <c r="B5" s="3">
         <v>42090</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12">
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11">
         <v>42090</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,14 +530,14 @@
       <c r="B6" s="3">
         <v>42097</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="7">
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9">
         <v>42097</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,15 +547,15 @@
         <f>SUM(B6,7)</f>
         <v>42104</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="7">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9">
         <f t="shared" ref="E7" si="0">SUM(E6,7)</f>
         <v>42104</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,15 +565,15 @@
         <f t="shared" ref="B8:B13" si="1">SUM(B7+7)</f>
         <v>42111</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9">
         <f t="shared" ref="E8" si="2">SUM(E7+7)</f>
         <v>42111</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -583,12 +583,12 @@
         <f t="shared" si="1"/>
         <v>42118</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,14 +598,14 @@
         <f t="shared" si="1"/>
         <v>42125</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12">
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11">
         <v>42124</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>5</v>
       </c>
@@ -615,14 +615,14 @@
         <f t="shared" si="1"/>
         <v>42132</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12">
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11">
         <v>42132</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="6" t="s">
         <v>5</v>
       </c>
@@ -632,14 +632,14 @@
         <f t="shared" si="1"/>
         <v>42139</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11">
         <v>42139</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="6" t="s">
         <v>5</v>
       </c>
@@ -649,14 +649,14 @@
         <f t="shared" si="1"/>
         <v>42146</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12">
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11">
         <v>42146</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
@@ -666,14 +666,14 @@
         <f>SUM(B13+7)</f>
         <v>42153</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12">
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11">
         <v>42153</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="6" t="s">
         <v>5</v>
       </c>
@@ -683,14 +683,14 @@
         <f>SUM(B14+7)</f>
         <v>42160</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11">
         <v>42160</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="6" t="s">
         <v>5</v>
       </c>
@@ -700,12 +700,12 @@
         <f>SUM(B15+7)</f>
         <v>42167</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="6" t="s">
         <v>7</v>
       </c>
@@ -714,14 +714,14 @@
       <c r="B17" s="3">
         <v>42174</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11">
         <v>42174</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="6" t="s">
         <v>5</v>
       </c>
@@ -730,14 +730,14 @@
       <c r="B18" s="3">
         <v>42181</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12">
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11">
         <v>42181</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="6" t="s">
         <v>5</v>
       </c>
@@ -746,14 +746,14 @@
       <c r="B19" s="3">
         <v>42188</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7">
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9">
         <v>42188</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="6" t="s">
         <v>5</v>
       </c>
@@ -762,43 +762,38 @@
       <c r="B20" s="3">
         <v>42195</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7">
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
         <v>42195</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>42202</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9">
+        <v>42202</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="39">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
@@ -813,6 +808,29 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
